--- a/static/pdf/26Q_Excel_Template.xlsx
+++ b/static/pdf/26Q_Excel_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neeraj Project\TDS excel template\FINAL TEMPLATES FOR SOFTWARE\Blank for Software-220925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D58D8-9D5B-47CE-BD4E-DEC0F8C4A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF47D2-26EB-4B39-BCE7-7588C05B9485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rXCQA419LvEZYK3j5EcCle5G1kJldFHdVsjYJJ7zfafGKg0QAKtnu7uB4yFnnYS6zYZoPbfNqlaLJVMvd4Ytvw==" workbookSaltValue="ApCyleIhq4QeU8aiRzHurw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,10 +26,11 @@
     <sheet name="Read me" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Challan Details'!$A$1:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Challan Details'!$A$1:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Deductee Details'!$A$1:$Y$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Validations Challan'!$B$2:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Validations Deductee'!$B$2:$H$56</definedName>
+    <definedName name="Running_Serial_No___401">'Challan Details'!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,45 +47,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="404">
   <si>
     <t>Light yellow Color in header, should be Mandatory</t>
   </si>
@@ -1863,7 +1827,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1939,12 +1903,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,7 +2004,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2212,9 +2170,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2223,11 +2178,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2247,64 +2202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2606,10 +2503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2806,12 +2702,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2823,94 +2718,77 @@
     <col min="11" max="11" width="12.6640625" style="56" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="53" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="53" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.44140625" style="53" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="53" hidden="1"/>
+    <col min="14" max="16384" width="8.88671875" style="53" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="62">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H2" s="65">
         <f>SUM(B2:G2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="54"/>
       <c r="M2" s="58"/>
-      <c r="O2" s="54" t="e" cm="1" vm="1">
-        <f t="array" ref="O2">_xlfn._xlws.FILTER(A2:A1048576,A2:A1048576&lt;&gt;"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H3" s="62">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H3" s="65">
         <f t="shared" ref="H3:H4" si="0">SUM(B3:G3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="58"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H4" s="62">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="54"/>
-      <c r="O4" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m3OarHVZnwcKcep8bUYJiokyG5p4EWXrIjYyUiXEikMU9XT2XoOFcjUBrJK3re0xRKOZ8Xp4KJLFBYD3SpDwGg==" saltValue="1TxIiDmQUJRvvesu3Dn5tQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:P4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <sheetProtection algorithmName="SHA-512" hashValue="lQ3jMejHzUX8g883akj7ISOj8adrNBgEocIWLMdisIxhdp/t+3zMrf8Y/gGX+tsijP8x3jY7NtdPFmk6xsxiTQ==" saltValue="LQeFG7dwGhr08V5q2diWmg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:N4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{D13379C6-0071-4A8C-8791-AC2F31E5D08B}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -2919,7 +2797,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7326A250-621B-46C6-98CB-82C3C435BFAD}">
           <x14:formula1>
             <xm:f>'Minor Head'!$A$4:$A$6</xm:f>
@@ -2941,7 +2819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,80 +2838,80 @@
     <col min="26" max="16384" width="8.88671875" style="53" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="66" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:25" s="64" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="63" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3062,19 +2940,18 @@
       <c r="Q3" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TgdFlWwpgSuNZnKis/QEA5mB8jFLNwq91XG+PlYDNFRez68W3MvKEBgEfgEZkdy7dfEmhV4ONNEm7gtklrwJzw==" saltValue="ZXx/gcWFa/iScXs1VKfw1Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UO5BM/c7xQy8ZN9oBajExN/e5mQj1CWIZt68kDVHtfL70RzguTxVYk4pj24N8ZvLWogo2v768N4w41sDttXATw==" saltValue="jsLSbdkRYqaAuLO5RrEDhA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:Y3" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{FDB38C29-D2C7-4818-A8F0-D268AF114619}">
+      <formula1>Running_Serial_No___401</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDB38C29-D2C7-4818-A8F0-D268AF114619}">
-          <x14:formula1>
-            <xm:f>_xlfn.ANCHORARRAY('Challan Details'!$O$2)</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDAFF2F5-B9C8-4D04-B710-25CE5ADA2B92}">
           <x14:formula1>
             <xm:f>'Deductee Code'!$A$3:$A$4</xm:f>
